--- a/data/pca/factorExposure/factorExposure_2009-02-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01693342206404442</v>
+        <v>0.01555431806557765</v>
       </c>
       <c r="C2">
-        <v>-0.01051532295628444</v>
+        <v>0.0116011324550943</v>
       </c>
       <c r="D2">
-        <v>-0.01556257446141899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01490423974900208</v>
+      </c>
+      <c r="E2">
+        <v>0.0005537028785356877</v>
+      </c>
+      <c r="F2">
+        <v>0.006574883082402614</v>
+      </c>
+      <c r="G2">
+        <v>0.01724678688302338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08122252525555902</v>
+        <v>0.08366162381300368</v>
       </c>
       <c r="C4">
-        <v>-0.08018460984400341</v>
+        <v>0.0866532110042718</v>
       </c>
       <c r="D4">
-        <v>0.06697966326057263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06719627167778008</v>
+      </c>
+      <c r="E4">
+        <v>-0.003473762551934783</v>
+      </c>
+      <c r="F4">
+        <v>0.03925027866341401</v>
+      </c>
+      <c r="G4">
+        <v>0.03112528662006971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.002986086018887351</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.002071343279865244</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-7.898466328086379e-05</v>
+      </c>
+      <c r="E5">
+        <v>0.00264504237477625</v>
+      </c>
+      <c r="F5">
+        <v>-0.002562041909503113</v>
+      </c>
+      <c r="G5">
+        <v>-0.002839074551189729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1677285621311714</v>
+        <v>0.1701560886197072</v>
       </c>
       <c r="C6">
-        <v>0.01833818296201531</v>
+        <v>-0.01003959418246958</v>
       </c>
       <c r="D6">
-        <v>0.05587536047843859</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05874654899032047</v>
+      </c>
+      <c r="E6">
+        <v>-0.01577523330503362</v>
+      </c>
+      <c r="F6">
+        <v>-0.05906289286449117</v>
+      </c>
+      <c r="G6">
+        <v>-0.007342100344098719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05472121823483857</v>
+        <v>0.05894393356429203</v>
       </c>
       <c r="C7">
-        <v>-0.05868741412605937</v>
+        <v>0.06346980889222471</v>
       </c>
       <c r="D7">
-        <v>0.04971034280295417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05913584994601476</v>
+      </c>
+      <c r="E7">
+        <v>-0.04186985759005087</v>
+      </c>
+      <c r="F7">
+        <v>0.06792784225465635</v>
+      </c>
+      <c r="G7">
+        <v>0.04211250603987225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05580050824219408</v>
+        <v>0.05238611070049628</v>
       </c>
       <c r="C8">
-        <v>-0.04455019494465097</v>
+        <v>0.04567967559879656</v>
       </c>
       <c r="D8">
-        <v>-0.02594533794907391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02657149194506006</v>
+      </c>
+      <c r="E8">
+        <v>0.0300059754017708</v>
+      </c>
+      <c r="F8">
+        <v>0.03900852800131317</v>
+      </c>
+      <c r="G8">
+        <v>-0.003980200016301403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06086326249456767</v>
+        <v>0.06457966645499744</v>
       </c>
       <c r="C9">
-        <v>-0.08708701312470166</v>
+        <v>0.09128498635368928</v>
       </c>
       <c r="D9">
-        <v>0.09115062258765212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08842389936592519</v>
+      </c>
+      <c r="E9">
+        <v>-0.006274944038987814</v>
+      </c>
+      <c r="F9">
+        <v>0.06194566264919776</v>
+      </c>
+      <c r="G9">
+        <v>0.003957978334904372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1080840509087102</v>
+        <v>0.1001821538605249</v>
       </c>
       <c r="C10">
-        <v>0.1465188888035503</v>
+        <v>-0.1394045988713306</v>
       </c>
       <c r="D10">
-        <v>-0.1003310704648522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.09168619132652557</v>
+      </c>
+      <c r="E10">
+        <v>-0.007656922109867046</v>
+      </c>
+      <c r="F10">
+        <v>0.04557339081626676</v>
+      </c>
+      <c r="G10">
+        <v>-0.006977131855605006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07873950305990995</v>
+        <v>0.07677112857926156</v>
       </c>
       <c r="C11">
-        <v>-0.1288633366439462</v>
+        <v>0.1289827575710324</v>
       </c>
       <c r="D11">
-        <v>0.05878762634158875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05043914201188799</v>
+      </c>
+      <c r="E11">
+        <v>0.01723178518206966</v>
+      </c>
+      <c r="F11">
+        <v>0.07918680107697411</v>
+      </c>
+      <c r="G11">
+        <v>0.007423477269731213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08249072897389449</v>
+        <v>0.07852422243203087</v>
       </c>
       <c r="C12">
-        <v>-0.1478960847591079</v>
+        <v>0.1496084219672321</v>
       </c>
       <c r="D12">
-        <v>0.0635808054053346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05942658435586139</v>
+      </c>
+      <c r="E12">
+        <v>0.008639953281001752</v>
+      </c>
+      <c r="F12">
+        <v>0.08626472922677822</v>
+      </c>
+      <c r="G12">
+        <v>0.0108285247695674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04172399498001447</v>
+        <v>0.04217746967093394</v>
       </c>
       <c r="C13">
-        <v>-0.06507708214564022</v>
+        <v>0.07198327342013017</v>
       </c>
       <c r="D13">
-        <v>0.0329855870329482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03249402086545747</v>
+      </c>
+      <c r="E13">
+        <v>-0.005171199386479715</v>
+      </c>
+      <c r="F13">
+        <v>0.07740688946149185</v>
+      </c>
+      <c r="G13">
+        <v>0.01264357987851418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01914115197688147</v>
+        <v>0.02253657151771834</v>
       </c>
       <c r="C14">
-        <v>-0.04268562259424426</v>
+        <v>0.0428939751366187</v>
       </c>
       <c r="D14">
-        <v>0.05233009104587521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04691470978540443</v>
+      </c>
+      <c r="E14">
+        <v>0.01127907505419141</v>
+      </c>
+      <c r="F14">
+        <v>0.08503915215290063</v>
+      </c>
+      <c r="G14">
+        <v>-0.00281100424726484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03125853083966833</v>
+        <v>0.03354150245995578</v>
       </c>
       <c r="C15">
-        <v>-0.05652338445107962</v>
+        <v>0.05579488954573824</v>
       </c>
       <c r="D15">
-        <v>0.04646368316152338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04252724308002329</v>
+      </c>
+      <c r="E15">
+        <v>-0.008898594122360005</v>
+      </c>
+      <c r="F15">
+        <v>0.03285051915973222</v>
+      </c>
+      <c r="G15">
+        <v>-0.01084784738422176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05726907749371881</v>
+        <v>0.05749824996847116</v>
       </c>
       <c r="C16">
-        <v>-0.1440495795488983</v>
+        <v>0.1442726941049634</v>
       </c>
       <c r="D16">
-        <v>0.07174135374756496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06257239410316243</v>
+      </c>
+      <c r="E16">
+        <v>0.03242114081146565</v>
+      </c>
+      <c r="F16">
+        <v>0.08165747393049698</v>
+      </c>
+      <c r="G16">
+        <v>0.01179965744349773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.005181731912249416</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004780627214376822</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.00173947155556314</v>
+      </c>
+      <c r="E17">
+        <v>0.009712008970657465</v>
+      </c>
+      <c r="F17">
+        <v>-0.006233390342706555</v>
+      </c>
+      <c r="G17">
+        <v>-0.01542643415829626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03558620677771214</v>
+        <v>0.05148707214090135</v>
       </c>
       <c r="C18">
-        <v>-0.04446000546079335</v>
+        <v>0.04019596265044338</v>
       </c>
       <c r="D18">
-        <v>-0.004509692712322771</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.009499379255300344</v>
+      </c>
+      <c r="E18">
+        <v>0.003402444541717452</v>
+      </c>
+      <c r="F18">
+        <v>-0.04559049250129161</v>
+      </c>
+      <c r="G18">
+        <v>-0.009431821892302692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05623542388946794</v>
+        <v>0.05669878757055067</v>
       </c>
       <c r="C20">
-        <v>-0.0933714731359247</v>
+        <v>0.09282775518348427</v>
       </c>
       <c r="D20">
-        <v>0.07666941378193734</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07355910353957304</v>
+      </c>
+      <c r="E20">
+        <v>0.02128599996363467</v>
+      </c>
+      <c r="F20">
+        <v>0.07203709856250136</v>
+      </c>
+      <c r="G20">
+        <v>-0.005625315989104335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04241958699799609</v>
+        <v>0.04446930699707161</v>
       </c>
       <c r="C21">
-        <v>-0.05702195791379162</v>
+        <v>0.05488479911898127</v>
       </c>
       <c r="D21">
-        <v>0.005511239861939668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.003506600612555906</v>
+      </c>
+      <c r="E21">
+        <v>-0.007755067880528475</v>
+      </c>
+      <c r="F21">
+        <v>0.07708164347311799</v>
+      </c>
+      <c r="G21">
+        <v>0.02494865291451373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04511870589635664</v>
+        <v>0.04374737703646214</v>
       </c>
       <c r="C22">
-        <v>-0.02093825947128058</v>
+        <v>0.02293066038700076</v>
       </c>
       <c r="D22">
-        <v>-0.01316917517645983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03900645802166607</v>
+      </c>
+      <c r="E22">
+        <v>0.1287344257818255</v>
+      </c>
+      <c r="F22">
+        <v>-0.02265100357072736</v>
+      </c>
+      <c r="G22">
+        <v>0.0108162555632077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04512813191183036</v>
+        <v>0.04375538729340183</v>
       </c>
       <c r="C23">
-        <v>-0.02093053548255588</v>
+        <v>0.02292397219537875</v>
       </c>
       <c r="D23">
-        <v>-0.01319507330035976</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03903592790121646</v>
+      </c>
+      <c r="E23">
+        <v>0.1287683807694043</v>
+      </c>
+      <c r="F23">
+        <v>-0.0226434366317636</v>
+      </c>
+      <c r="G23">
+        <v>0.01077960520443657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0667814547242178</v>
+        <v>0.06621058805124323</v>
       </c>
       <c r="C24">
-        <v>-0.1373189171115474</v>
+        <v>0.1359626672976189</v>
       </c>
       <c r="D24">
-        <v>0.06378309133407228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05770960435728025</v>
+      </c>
+      <c r="E24">
+        <v>0.01244879680155746</v>
+      </c>
+      <c r="F24">
+        <v>0.07638833920808688</v>
+      </c>
+      <c r="G24">
+        <v>0.01140352157340961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07211844641393821</v>
+        <v>0.07053834995435726</v>
       </c>
       <c r="C25">
-        <v>-0.1211505741250702</v>
+        <v>0.1196987124479424</v>
       </c>
       <c r="D25">
-        <v>0.04887136840418117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.04106157179752673</v>
+      </c>
+      <c r="E25">
+        <v>-0.01650607552148155</v>
+      </c>
+      <c r="F25">
+        <v>0.09031125620781287</v>
+      </c>
+      <c r="G25">
+        <v>0.01563629516257029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05560330188773709</v>
+        <v>0.06038244692363826</v>
       </c>
       <c r="C26">
-        <v>-0.06696267466495988</v>
+        <v>0.06777648255117817</v>
       </c>
       <c r="D26">
-        <v>0.02707620454184903</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02266861702042292</v>
+      </c>
+      <c r="E26">
+        <v>0.01215784569128719</v>
+      </c>
+      <c r="F26">
+        <v>0.08054644953658392</v>
+      </c>
+      <c r="G26">
+        <v>-0.00217687237129185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1705857800576866</v>
+        <v>0.1728048396582015</v>
       </c>
       <c r="C28">
-        <v>0.2276432486474092</v>
+        <v>-0.2289021623719868</v>
       </c>
       <c r="D28">
-        <v>-0.02012669936813503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02488178529600452</v>
+      </c>
+      <c r="E28">
+        <v>-0.06304520191591859</v>
+      </c>
+      <c r="F28">
+        <v>0.1291831964941445</v>
+      </c>
+      <c r="G28">
+        <v>-0.007540764274423136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02407408871083644</v>
+        <v>0.02703299665066245</v>
       </c>
       <c r="C29">
-        <v>-0.04670478335048604</v>
+        <v>0.04420942164257245</v>
       </c>
       <c r="D29">
-        <v>0.01166138421315699</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.006946797543396311</v>
+      </c>
+      <c r="E29">
+        <v>0.02650969715533224</v>
+      </c>
+      <c r="F29">
+        <v>0.07685094860809512</v>
+      </c>
+      <c r="G29">
+        <v>-0.0006038093691069616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03978067748041662</v>
+        <v>0.04208877371038081</v>
       </c>
       <c r="C30">
-        <v>-0.06914123026740956</v>
+        <v>0.07657187415546529</v>
       </c>
       <c r="D30">
-        <v>0.1215488373720797</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1104628128580284</v>
+      </c>
+      <c r="E30">
+        <v>-0.05733950341638794</v>
+      </c>
+      <c r="F30">
+        <v>0.07463622631956873</v>
+      </c>
+      <c r="G30">
+        <v>-0.0231578154291337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0521653718913128</v>
+        <v>0.05152802627603718</v>
       </c>
       <c r="C31">
-        <v>-0.03163949745031798</v>
+        <v>0.03484242953316719</v>
       </c>
       <c r="D31">
-        <v>0.0122238126919105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0141336347938177</v>
+      </c>
+      <c r="E31">
+        <v>0.03605463104704226</v>
+      </c>
+      <c r="F31">
+        <v>0.0163073798789164</v>
+      </c>
+      <c r="G31">
+        <v>0.02553151569565099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04314838644340491</v>
+        <v>0.04783755974431615</v>
       </c>
       <c r="C32">
-        <v>-0.04804965479928696</v>
+        <v>0.04480167181409751</v>
       </c>
       <c r="D32">
-        <v>0.02087943814289724</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.02100430794848893</v>
+      </c>
+      <c r="E32">
+        <v>0.03341711730543612</v>
+      </c>
+      <c r="F32">
+        <v>0.003298510823711112</v>
+      </c>
+      <c r="G32">
+        <v>-0.0065239977976943</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07838017623324658</v>
+        <v>0.08220562959818295</v>
       </c>
       <c r="C33">
-        <v>-0.1077609350739986</v>
+        <v>0.1173226439103103</v>
       </c>
       <c r="D33">
-        <v>0.06865036751125007</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06907838419172818</v>
+      </c>
+      <c r="E33">
+        <v>0.02031093041927663</v>
+      </c>
+      <c r="F33">
+        <v>0.07751748924009137</v>
+      </c>
+      <c r="G33">
+        <v>0.004712115082784776</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05553070325268637</v>
+        <v>0.05537140550835174</v>
       </c>
       <c r="C34">
-        <v>-0.1221206644499448</v>
+        <v>0.1240709140700706</v>
       </c>
       <c r="D34">
-        <v>0.08182461028804414</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.06846456266217243</v>
+      </c>
+      <c r="E34">
+        <v>-0.01658887558583785</v>
+      </c>
+      <c r="F34">
+        <v>0.08610859162025784</v>
+      </c>
+      <c r="G34">
+        <v>-0.0203395680782524</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02738992759576174</v>
+        <v>0.02922236037477843</v>
       </c>
       <c r="C35">
-        <v>-0.01596405895820106</v>
+        <v>0.0169357659986009</v>
       </c>
       <c r="D35">
-        <v>0.0267916188159189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02142684709825159</v>
+      </c>
+      <c r="E35">
+        <v>0.02245152393224837</v>
+      </c>
+      <c r="F35">
+        <v>0.03680592049588761</v>
+      </c>
+      <c r="G35">
+        <v>-0.02602871519320008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02253051379952635</v>
+        <v>0.02728745279288784</v>
       </c>
       <c r="C36">
-        <v>-0.04748622641198093</v>
+        <v>0.04814572800984375</v>
       </c>
       <c r="D36">
-        <v>0.06554260349264349</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.05544622010917159</v>
+      </c>
+      <c r="E36">
+        <v>0.01817088512559414</v>
+      </c>
+      <c r="F36">
+        <v>0.03679148030014001</v>
+      </c>
+      <c r="G36">
+        <v>-0.08009260200936019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003453790631249841</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.006506834962102004</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-4.082369912590631e-05</v>
+      </c>
+      <c r="E37">
+        <v>0.00216617461850524</v>
+      </c>
+      <c r="F37">
+        <v>0.009970747418994209</v>
+      </c>
+      <c r="G37">
+        <v>0.005690447337698182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08411340196746252</v>
+        <v>0.07845336739444525</v>
       </c>
       <c r="C39">
-        <v>-0.1525638973290402</v>
+        <v>0.1478103548957885</v>
       </c>
       <c r="D39">
-        <v>0.04771927648216861</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04033611866493476</v>
+      </c>
+      <c r="E39">
+        <v>0.01643054906322688</v>
+      </c>
+      <c r="F39">
+        <v>0.1237451845511807</v>
+      </c>
+      <c r="G39">
+        <v>0.04997205642178505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0455725263952257</v>
+        <v>0.0511614504673622</v>
       </c>
       <c r="C40">
-        <v>-0.0608479737090914</v>
+        <v>0.06528543040894977</v>
       </c>
       <c r="D40">
-        <v>0.01561110366607989</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.009037970393066225</v>
+      </c>
+      <c r="E40">
+        <v>0.008185542664272506</v>
+      </c>
+      <c r="F40">
+        <v>0.05927188390535349</v>
+      </c>
+      <c r="G40">
+        <v>-0.03725673335475779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02654486237070927</v>
+        <v>0.02859828456626207</v>
       </c>
       <c r="C41">
-        <v>-0.02091293261666357</v>
+        <v>0.02192050640490351</v>
       </c>
       <c r="D41">
-        <v>-0.00834778881694488</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.007198440527095508</v>
+      </c>
+      <c r="E41">
+        <v>0.008894725437511289</v>
+      </c>
+      <c r="F41">
+        <v>-0.01200727424799791</v>
+      </c>
+      <c r="G41">
+        <v>-0.01276158897032288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04214665984918609</v>
+        <v>0.04175091292486607</v>
       </c>
       <c r="C43">
-        <v>-0.03834071985775717</v>
+        <v>0.03619944665647381</v>
       </c>
       <c r="D43">
-        <v>0.002917196609540684</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0008722323720994561</v>
+      </c>
+      <c r="E43">
+        <v>0.02841029582905552</v>
+      </c>
+      <c r="F43">
+        <v>0.02562335733742612</v>
+      </c>
+      <c r="G43">
+        <v>0.004261742870347793</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05572527590335195</v>
+        <v>0.06373281000803155</v>
       </c>
       <c r="C44">
-        <v>-0.07965001437900411</v>
+        <v>0.08610583141077843</v>
       </c>
       <c r="D44">
-        <v>0.2816757298638398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.2607714543858791</v>
+      </c>
+      <c r="E44">
+        <v>-0.02975106279030472</v>
+      </c>
+      <c r="F44">
+        <v>0.1669404225887391</v>
+      </c>
+      <c r="G44">
+        <v>-0.1693768618848808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.000503731321799173</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.001030022227611009</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-0.000175531221269785</v>
+      </c>
+      <c r="E45">
+        <v>-0.001196808832395331</v>
+      </c>
+      <c r="F45">
+        <v>0.000400607008304307</v>
+      </c>
+      <c r="G45">
+        <v>0.004122162029034221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02723712455109972</v>
+        <v>0.02733456853830745</v>
       </c>
       <c r="C46">
-        <v>-0.0325153667049232</v>
+        <v>0.03133898462351228</v>
       </c>
       <c r="D46">
-        <v>0.01405880199267189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0109721869825004</v>
+      </c>
+      <c r="E46">
+        <v>0.04013636986079153</v>
+      </c>
+      <c r="F46">
+        <v>0.07027656006062533</v>
+      </c>
+      <c r="G46">
+        <v>0.03115901428523069</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05167921932442558</v>
+        <v>0.05100163622494554</v>
       </c>
       <c r="C47">
-        <v>-0.02273255574712286</v>
+        <v>0.02574776888370874</v>
       </c>
       <c r="D47">
-        <v>-0.02355814724443393</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01701679981463453</v>
+      </c>
+      <c r="E47">
+        <v>0.05730541383818446</v>
+      </c>
+      <c r="F47">
+        <v>-0.01145905443316962</v>
+      </c>
+      <c r="G47">
+        <v>0.0319673655295469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04695941444498829</v>
+        <v>0.05016998242625962</v>
       </c>
       <c r="C48">
-        <v>-0.06770550974227407</v>
+        <v>0.06661978119941328</v>
       </c>
       <c r="D48">
-        <v>0.02434430395934926</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02202472783259048</v>
+      </c>
+      <c r="E48">
+        <v>-0.01397416840869574</v>
+      </c>
+      <c r="F48">
+        <v>0.05502465951717087</v>
+      </c>
+      <c r="G48">
+        <v>0.02208650559086162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1945971954782266</v>
+        <v>0.1972822969716817</v>
       </c>
       <c r="C49">
-        <v>0.01035820924788412</v>
+        <v>-0.003015155223758322</v>
       </c>
       <c r="D49">
-        <v>0.03181966326284971</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.04124366619114819</v>
+      </c>
+      <c r="E49">
+        <v>-0.02732254389607701</v>
+      </c>
+      <c r="F49">
+        <v>-0.05962167093357573</v>
+      </c>
+      <c r="G49">
+        <v>-0.001095740511691945</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05022356487280208</v>
+        <v>0.05186806686178863</v>
       </c>
       <c r="C50">
-        <v>-0.02905185470895741</v>
+        <v>0.03222397599649488</v>
       </c>
       <c r="D50">
-        <v>0.02081318691088464</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02503274661987396</v>
+      </c>
+      <c r="E50">
+        <v>0.02633621647414331</v>
+      </c>
+      <c r="F50">
+        <v>0.009315552021192027</v>
+      </c>
+      <c r="G50">
+        <v>0.02477919887524959</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1442317860395912</v>
+        <v>0.137686428712343</v>
       </c>
       <c r="C52">
-        <v>-0.03481902417046129</v>
+        <v>0.03502314941433023</v>
       </c>
       <c r="D52">
-        <v>0.05877302001597147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0577019072209499</v>
+      </c>
+      <c r="E52">
+        <v>0.02519569455526945</v>
+      </c>
+      <c r="F52">
+        <v>-0.06535586710398103</v>
+      </c>
+      <c r="G52">
+        <v>0.03494093166860827</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1744967783115761</v>
+        <v>0.1656477274564229</v>
       </c>
       <c r="C53">
-        <v>-0.001149341475412667</v>
+        <v>0.004387609553312548</v>
       </c>
       <c r="D53">
-        <v>0.09860692835184764</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.1050784393272543</v>
+      </c>
+      <c r="E53">
+        <v>0.01716585508921921</v>
+      </c>
+      <c r="F53">
+        <v>-0.1083388621626749</v>
+      </c>
+      <c r="G53">
+        <v>0.0677985552589494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.009570857167785574</v>
+        <v>0.01341751655145293</v>
       </c>
       <c r="C54">
-        <v>-0.03043327542678478</v>
+        <v>0.03103433635684054</v>
       </c>
       <c r="D54">
-        <v>0.01599781032223318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01585276939495879</v>
+      </c>
+      <c r="E54">
+        <v>0.01868960056134783</v>
+      </c>
+      <c r="F54">
+        <v>0.0532319028316093</v>
+      </c>
+      <c r="G54">
+        <v>0.007274501712365585</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1203787587693409</v>
+        <v>0.116829653227721</v>
       </c>
       <c r="C55">
-        <v>-0.005620426506822719</v>
+        <v>0.01139085873758551</v>
       </c>
       <c r="D55">
-        <v>0.06561958887368088</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06758245784078458</v>
+      </c>
+      <c r="E55">
+        <v>0.04802286227078893</v>
+      </c>
+      <c r="F55">
+        <v>-0.03104434490110837</v>
+      </c>
+      <c r="G55">
+        <v>0.07216817217705676</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1810313168689748</v>
+        <v>0.1731483543170901</v>
       </c>
       <c r="C56">
-        <v>0.007012832802854201</v>
+        <v>-0.005868583317035315</v>
       </c>
       <c r="D56">
-        <v>0.04447720481416712</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05392199783497933</v>
+      </c>
+      <c r="E56">
+        <v>0.03840296122494848</v>
+      </c>
+      <c r="F56">
+        <v>-0.1430668037566613</v>
+      </c>
+      <c r="G56">
+        <v>0.0723681904643871</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04470980205865579</v>
+        <v>0.04486267691158621</v>
       </c>
       <c r="C58">
-        <v>-0.09330098326337319</v>
+        <v>0.1006245975633526</v>
       </c>
       <c r="D58">
-        <v>-0.005135624739724361</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.001716459594244211</v>
+      </c>
+      <c r="E58">
+        <v>0.04790840469783037</v>
+      </c>
+      <c r="F58">
+        <v>0.04322714985811644</v>
+      </c>
+      <c r="G58">
+        <v>0.02253678671139575</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1866712717583205</v>
+        <v>0.1896208861941643</v>
       </c>
       <c r="C59">
-        <v>0.1782677369295609</v>
+        <v>-0.1825378799331515</v>
       </c>
       <c r="D59">
-        <v>-0.07818449367703398</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.07955058904715649</v>
+      </c>
+      <c r="E59">
+        <v>0.002143020317544134</v>
+      </c>
+      <c r="F59">
+        <v>0.05718675765029824</v>
+      </c>
+      <c r="G59">
+        <v>0.03922868884511137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2157622212791977</v>
+        <v>0.2104269619259468</v>
       </c>
       <c r="C60">
-        <v>-0.01127297446899213</v>
+        <v>0.01870022171466556</v>
       </c>
       <c r="D60">
-        <v>-0.06624811633830038</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04590216565049426</v>
+      </c>
+      <c r="E60">
+        <v>0.00990602324436763</v>
+      </c>
+      <c r="F60">
+        <v>-0.2069907885772913</v>
+      </c>
+      <c r="G60">
+        <v>0.08580026035173538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06456086292339255</v>
+        <v>0.06182274596301915</v>
       </c>
       <c r="C61">
-        <v>-0.1226352030728343</v>
+        <v>0.1206274063358688</v>
       </c>
       <c r="D61">
-        <v>0.03705409020759675</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.02958042954587639</v>
+      </c>
+      <c r="E61">
+        <v>0.02705168598335222</v>
+      </c>
+      <c r="F61">
+        <v>0.08446459113587966</v>
+      </c>
+      <c r="G61">
+        <v>0.02483315975121454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1680449012647202</v>
+        <v>0.1643613346123357</v>
       </c>
       <c r="C62">
-        <v>0.011395751923724</v>
+        <v>-0.008082806939057358</v>
       </c>
       <c r="D62">
-        <v>0.03707619234690276</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.0481774110317398</v>
+      </c>
+      <c r="E62">
+        <v>0.03773651989912937</v>
+      </c>
+      <c r="F62">
+        <v>-0.113289263411383</v>
+      </c>
+      <c r="G62">
+        <v>0.06492117649218754</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03753885815010029</v>
+        <v>0.04300007293812508</v>
       </c>
       <c r="C63">
-        <v>-0.06833342926474489</v>
+        <v>0.07194512886640797</v>
       </c>
       <c r="D63">
-        <v>0.029270688286386</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0226390001731601</v>
+      </c>
+      <c r="E63">
+        <v>0.03159265349933411</v>
+      </c>
+      <c r="F63">
+        <v>0.05086022236778939</v>
+      </c>
+      <c r="G63">
+        <v>-0.02510283619911639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1108521307385755</v>
+        <v>0.1093133694728897</v>
       </c>
       <c r="C64">
-        <v>-0.04965774294339626</v>
+        <v>0.05314636409652054</v>
       </c>
       <c r="D64">
-        <v>0.03706431326327067</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03976867737675602</v>
+      </c>
+      <c r="E64">
+        <v>0.01564438152838921</v>
+      </c>
+      <c r="F64">
+        <v>-0.03382456616385011</v>
+      </c>
+      <c r="G64">
+        <v>0.00488436558286821</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1563042978014019</v>
+        <v>0.1600102266461072</v>
       </c>
       <c r="C65">
-        <v>0.05954134776054124</v>
+        <v>-0.04931877950496705</v>
       </c>
       <c r="D65">
-        <v>0.0473436473645349</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.05415349146115764</v>
+      </c>
+      <c r="E65">
+        <v>-0.004522318617146503</v>
+      </c>
+      <c r="F65">
+        <v>-0.0159502280144373</v>
+      </c>
+      <c r="G65">
+        <v>0.02128047852866751</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1021075826374891</v>
+        <v>0.0952797251496567</v>
       </c>
       <c r="C66">
-        <v>-0.1303041342778878</v>
+        <v>0.130171703726141</v>
       </c>
       <c r="D66">
-        <v>0.04900433113463396</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.03817611538968918</v>
+      </c>
+      <c r="E66">
+        <v>0.01028857200694584</v>
+      </c>
+      <c r="F66">
+        <v>0.1026051703001304</v>
+      </c>
+      <c r="G66">
+        <v>0.003483258954145281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05805087742036436</v>
+        <v>0.04897263272613517</v>
       </c>
       <c r="C67">
-        <v>-0.0802057140879105</v>
+        <v>0.0737373363473745</v>
       </c>
       <c r="D67">
-        <v>-0.04802362342868362</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05222262855241511</v>
+      </c>
+      <c r="E67">
+        <v>0.07847509030451102</v>
+      </c>
+      <c r="F67">
+        <v>-0.03142874567349602</v>
+      </c>
+      <c r="G67">
+        <v>0.0009442298315289214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1391166250132307</v>
+        <v>0.1416579716024805</v>
       </c>
       <c r="C68">
-        <v>0.2467566475142868</v>
+        <v>-0.2498239845876441</v>
       </c>
       <c r="D68">
-        <v>-0.04181200579370901</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03997215551867687</v>
+      </c>
+      <c r="E68">
+        <v>-0.1055091671119931</v>
+      </c>
+      <c r="F68">
+        <v>0.1146160738861936</v>
+      </c>
+      <c r="G68">
+        <v>0.02247403196194956</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03896406402935981</v>
+        <v>0.03853641097539121</v>
       </c>
       <c r="C69">
-        <v>-0.01210908231107736</v>
+        <v>0.01422069989338355</v>
       </c>
       <c r="D69">
-        <v>0.00515742330142587</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007092018468837768</v>
+      </c>
+      <c r="E69">
+        <v>0.0633694591406304</v>
+      </c>
+      <c r="F69">
+        <v>-0.04298590751587721</v>
+      </c>
+      <c r="G69">
+        <v>-0.0216493627008804</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07059065530705325</v>
+        <v>0.07189762550975057</v>
       </c>
       <c r="C70">
-        <v>-0.08019909415021804</v>
+        <v>0.07488851978224977</v>
       </c>
       <c r="D70">
-        <v>-0.5245762788198629</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.4274375681018713</v>
+      </c>
+      <c r="E70">
+        <v>0.1868489995748494</v>
+      </c>
+      <c r="F70">
+        <v>-0.3626458061923141</v>
+      </c>
+      <c r="G70">
+        <v>0.4276274507425755</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1617098470603524</v>
+        <v>0.165482871110794</v>
       </c>
       <c r="C71">
-        <v>0.2538037651165688</v>
+        <v>-0.2540786045516061</v>
       </c>
       <c r="D71">
-        <v>-0.04205201455102901</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.04248798050515917</v>
+      </c>
+      <c r="E71">
+        <v>-0.1157229382298868</v>
+      </c>
+      <c r="F71">
+        <v>0.1164369211352288</v>
+      </c>
+      <c r="G71">
+        <v>0.02349200172524498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1433387301384948</v>
+        <v>0.1484917380815114</v>
       </c>
       <c r="C72">
-        <v>-0.011521573808438</v>
+        <v>0.008716332158867735</v>
       </c>
       <c r="D72">
-        <v>0.07573433117236805</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06577848937750833</v>
+      </c>
+      <c r="E72">
+        <v>0.04199412866384791</v>
+      </c>
+      <c r="F72">
+        <v>-0.0186133953042993</v>
+      </c>
+      <c r="G72">
+        <v>-0.009739491489905515</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1911633610089935</v>
+        <v>0.1993531364177256</v>
       </c>
       <c r="C73">
-        <v>-0.01836294842768429</v>
+        <v>0.02870136511644623</v>
       </c>
       <c r="D73">
-        <v>0.05564420626856035</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06239651072972623</v>
+      </c>
+      <c r="E73">
+        <v>0.06985198073643831</v>
+      </c>
+      <c r="F73">
+        <v>-0.108155401945559</v>
+      </c>
+      <c r="G73">
+        <v>-0.0165425660381398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08671931594647923</v>
+        <v>0.08579912181353219</v>
       </c>
       <c r="C74">
-        <v>-0.003255002015572165</v>
+        <v>0.01007735736429886</v>
       </c>
       <c r="D74">
-        <v>0.07309913380683282</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.07819990109676869</v>
+      </c>
+      <c r="E74">
+        <v>0.02597730306530721</v>
+      </c>
+      <c r="F74">
+        <v>-0.06365103579152265</v>
+      </c>
+      <c r="G74">
+        <v>-0.001332991604609294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1242662528112603</v>
+        <v>0.1164350409141479</v>
       </c>
       <c r="C75">
-        <v>-0.01860559747583658</v>
+        <v>0.02237926967214672</v>
       </c>
       <c r="D75">
-        <v>0.05749754020315701</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.05701258384305521</v>
+      </c>
+      <c r="E75">
+        <v>0.06118621311824664</v>
+      </c>
+      <c r="F75">
+        <v>-0.05638192307496805</v>
+      </c>
+      <c r="G75">
+        <v>0.04592494294349756</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07182248398672945</v>
+        <v>0.0863734769217802</v>
       </c>
       <c r="C77">
-        <v>-0.1138719189456783</v>
+        <v>0.1129161207015166</v>
       </c>
       <c r="D77">
-        <v>0.06977264479946432</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07549288028315963</v>
+      </c>
+      <c r="E77">
+        <v>-0.008952313681226206</v>
+      </c>
+      <c r="F77">
+        <v>0.08328536577026679</v>
+      </c>
+      <c r="G77">
+        <v>0.1061004854092618</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08947992915251575</v>
+        <v>0.09371773468926067</v>
       </c>
       <c r="C78">
-        <v>-0.1292751847738823</v>
+        <v>0.1284522786031779</v>
       </c>
       <c r="D78">
-        <v>0.08281632537287813</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06437727879568211</v>
+      </c>
+      <c r="E78">
+        <v>-0.007724104484298046</v>
+      </c>
+      <c r="F78">
+        <v>0.1237527249063914</v>
+      </c>
+      <c r="G78">
+        <v>0.08326137057708285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1676981902489153</v>
+        <v>0.1626007068114107</v>
       </c>
       <c r="C79">
-        <v>-0.01618551602535031</v>
+        <v>0.01726929230545871</v>
       </c>
       <c r="D79">
-        <v>0.03025105450169859</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03255681479598527</v>
+      </c>
+      <c r="E79">
+        <v>0.038684925671013</v>
+      </c>
+      <c r="F79">
+        <v>-0.04907953214420806</v>
+      </c>
+      <c r="G79">
+        <v>0.04624549895102335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07448443275419087</v>
+        <v>0.07254949097492719</v>
       </c>
       <c r="C80">
-        <v>-0.05828448361740045</v>
+        <v>0.05681613106687667</v>
       </c>
       <c r="D80">
-        <v>0.01306105726465943</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.003725207385949745</v>
+      </c>
+      <c r="E80">
+        <v>0.05337696768330292</v>
+      </c>
+      <c r="F80">
+        <v>0.1143911836831659</v>
+      </c>
+      <c r="G80">
+        <v>-0.09673723659442095</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1111435985801339</v>
+        <v>0.1050310477965392</v>
       </c>
       <c r="C81">
-        <v>0.01633288265451779</v>
+        <v>-0.01312617938614028</v>
       </c>
       <c r="D81">
-        <v>0.02806376383242538</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03014819566906838</v>
+      </c>
+      <c r="E81">
+        <v>0.06082088253844979</v>
+      </c>
+      <c r="F81">
+        <v>-0.05987728614610175</v>
+      </c>
+      <c r="G81">
+        <v>0.01214921711607065</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1610442489542958</v>
+        <v>0.1572774604369515</v>
       </c>
       <c r="C82">
-        <v>0.02508893557928647</v>
+        <v>-0.0186923091424141</v>
       </c>
       <c r="D82">
-        <v>0.08786662043402899</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.09583165587326016</v>
+      </c>
+      <c r="E82">
+        <v>0.008963812587045705</v>
+      </c>
+      <c r="F82">
+        <v>-0.1019623168545219</v>
+      </c>
+      <c r="G82">
+        <v>0.001435803085827941</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05272460290399868</v>
+        <v>0.04897046746764956</v>
       </c>
       <c r="C83">
-        <v>-0.06006668861183324</v>
+        <v>0.05584882192779171</v>
       </c>
       <c r="D83">
-        <v>-0.009786679417759715</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01186354212882621</v>
+      </c>
+      <c r="E83">
+        <v>0.01140784733968465</v>
+      </c>
+      <c r="F83">
+        <v>0.006275397002925193</v>
+      </c>
+      <c r="G83">
+        <v>0.0168470954391632</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05077532950873336</v>
+        <v>0.04798773521319594</v>
       </c>
       <c r="C84">
-        <v>-0.0729061464517535</v>
+        <v>0.07047608182675555</v>
       </c>
       <c r="D84">
-        <v>0.002801487203692023</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.002541586352878845</v>
+      </c>
+      <c r="E84">
+        <v>0.01014082824335857</v>
+      </c>
+      <c r="F84">
+        <v>-0.01282078322578256</v>
+      </c>
+      <c r="G84">
+        <v>0.03215290812752724</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1398825789739153</v>
+        <v>0.1341219738302084</v>
       </c>
       <c r="C85">
-        <v>-0.006546242288515529</v>
+        <v>0.00978359873896883</v>
       </c>
       <c r="D85">
-        <v>0.09279673268108427</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09144712995581039</v>
+      </c>
+      <c r="E85">
+        <v>0.02193134260239478</v>
+      </c>
+      <c r="F85">
+        <v>-0.04077119235646239</v>
+      </c>
+      <c r="G85">
+        <v>0.03256019221134699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08357195391768622</v>
+        <v>0.08178946898532417</v>
       </c>
       <c r="C86">
-        <v>-0.1000181735983928</v>
+        <v>0.1013517831397521</v>
       </c>
       <c r="D86">
-        <v>-0.4997701297241102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.5807877132348659</v>
+      </c>
+      <c r="E86">
+        <v>0.4379788588749317</v>
+      </c>
+      <c r="F86">
+        <v>0.4812713526621875</v>
+      </c>
+      <c r="G86">
+        <v>-0.08684689769388218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08851352154306835</v>
+        <v>0.08742182619160402</v>
       </c>
       <c r="C87">
-        <v>-0.08587930068741026</v>
+        <v>0.08696335617103795</v>
       </c>
       <c r="D87">
-        <v>0.05279745476858461</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.04298067454829355</v>
+      </c>
+      <c r="E87">
+        <v>-0.09732452992878336</v>
+      </c>
+      <c r="F87">
+        <v>0.08791031670268386</v>
+      </c>
+      <c r="G87">
+        <v>-0.06294906669047601</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06077660145883136</v>
+        <v>0.06033472269066324</v>
       </c>
       <c r="C88">
-        <v>-0.05929945651248657</v>
+        <v>0.05985880838725044</v>
       </c>
       <c r="D88">
-        <v>0.01537638662089893</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0173687617298147</v>
+      </c>
+      <c r="E88">
+        <v>0.01513838933972631</v>
+      </c>
+      <c r="F88">
+        <v>-0.02558957317390036</v>
+      </c>
+      <c r="G88">
+        <v>0.01394327401774351</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1480848498708228</v>
+        <v>0.1498547391273777</v>
       </c>
       <c r="C89">
-        <v>0.194966867405692</v>
+        <v>-0.2067389333691022</v>
       </c>
       <c r="D89">
-        <v>-0.01864386207210913</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02590706381907086</v>
+      </c>
+      <c r="E89">
+        <v>-0.09300845419996122</v>
+      </c>
+      <c r="F89">
+        <v>0.09032314207830992</v>
+      </c>
+      <c r="G89">
+        <v>-0.005952556307202004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1757581514533</v>
+        <v>0.1825073573441466</v>
       </c>
       <c r="C90">
-        <v>0.2299071037157241</v>
+        <v>-0.2382132558538045</v>
       </c>
       <c r="D90">
-        <v>-0.05664893225531573</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.06065484019669462</v>
+      </c>
+      <c r="E90">
+        <v>-0.1433173092407046</v>
+      </c>
+      <c r="F90">
+        <v>0.134376914087149</v>
+      </c>
+      <c r="G90">
+        <v>0.004839658398302548</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1266454818004215</v>
+        <v>0.120835662498208</v>
       </c>
       <c r="C91">
-        <v>0.02207317117138977</v>
+        <v>-0.02031355911554792</v>
       </c>
       <c r="D91">
-        <v>0.0244578363634829</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02142860522352262</v>
+      </c>
+      <c r="E91">
+        <v>0.09362404204225439</v>
+      </c>
+      <c r="F91">
+        <v>-0.08995475876078635</v>
+      </c>
+      <c r="G91">
+        <v>-0.0008028111921794251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1703521755409452</v>
+        <v>0.1727293569563694</v>
       </c>
       <c r="C92">
-        <v>0.2656271396292796</v>
+        <v>-0.277557971588217</v>
       </c>
       <c r="D92">
-        <v>-0.05568915386050421</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.04973661732097345</v>
+      </c>
+      <c r="E92">
+        <v>-0.100577374674432</v>
+      </c>
+      <c r="F92">
+        <v>0.1789429125914783</v>
+      </c>
+      <c r="G92">
+        <v>0.06002463773050275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1767622891791409</v>
+        <v>0.1839323641105765</v>
       </c>
       <c r="C93">
-        <v>0.2229546205032044</v>
+        <v>-0.2297438620206997</v>
       </c>
       <c r="D93">
-        <v>-0.03099141768869244</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02883367450853302</v>
+      </c>
+      <c r="E93">
+        <v>-0.06983610310142714</v>
+      </c>
+      <c r="F93">
+        <v>0.09119177683595692</v>
+      </c>
+      <c r="G93">
+        <v>0.06390150707768459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1196965564107357</v>
+        <v>0.1138730018920837</v>
       </c>
       <c r="C94">
-        <v>-0.03293579919342385</v>
+        <v>0.03335873474337851</v>
       </c>
       <c r="D94">
-        <v>0.05104879532571342</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04957565479603283</v>
+      </c>
+      <c r="E94">
+        <v>0.06136955485017657</v>
+      </c>
+      <c r="F94">
+        <v>-0.05471333352538509</v>
+      </c>
+      <c r="G94">
+        <v>0.04030249340467183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.121362423488373</v>
+        <v>0.1235366735726757</v>
       </c>
       <c r="C95">
-        <v>-0.1103359958804144</v>
+        <v>0.1168785401258381</v>
       </c>
       <c r="D95">
-        <v>0.004736341209738587</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.00742272493987266</v>
+      </c>
+      <c r="E95">
+        <v>0.05179834566640006</v>
+      </c>
+      <c r="F95">
+        <v>0.04864371473629386</v>
+      </c>
+      <c r="G95">
+        <v>0.001368938136723346</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1240902713381125</v>
+        <v>0.1217533828857044</v>
       </c>
       <c r="C96">
-        <v>-0.1195148014655861</v>
+        <v>0.1269166120608728</v>
       </c>
       <c r="D96">
-        <v>-0.06226009216802435</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.03135480370465333</v>
+      </c>
+      <c r="E96">
+        <v>0.07798779791541645</v>
+      </c>
+      <c r="F96">
+        <v>-0.1552763658470299</v>
+      </c>
+      <c r="G96">
+        <v>0.05517038535321163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1924895533099159</v>
+        <v>0.197029318166093</v>
       </c>
       <c r="C97">
-        <v>0.001524175467223126</v>
+        <v>-0.004170597490151161</v>
       </c>
       <c r="D97">
-        <v>-0.1260295417894149</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.1667386864158934</v>
+      </c>
+      <c r="E97">
+        <v>0.102575743272462</v>
+      </c>
+      <c r="F97">
+        <v>-0.3023617299014952</v>
+      </c>
+      <c r="G97">
+        <v>-0.8207973397931606</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1986450164592639</v>
+        <v>0.2041801711255687</v>
       </c>
       <c r="C98">
-        <v>-0.02685773984036963</v>
+        <v>0.03171912264170725</v>
       </c>
       <c r="D98">
-        <v>-0.1141301754732959</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1026815405060247</v>
+      </c>
+      <c r="E98">
+        <v>-0.03283232593342893</v>
+      </c>
+      <c r="F98">
+        <v>-0.09443012120815815</v>
+      </c>
+      <c r="G98">
+        <v>0.01215277592623871</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05321032060723937</v>
+        <v>0.05289153804823114</v>
       </c>
       <c r="C99">
-        <v>-0.05247773661812293</v>
+        <v>0.05400872604091135</v>
       </c>
       <c r="D99">
-        <v>0.00990059311062636</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.008645037585433233</v>
+      </c>
+      <c r="E99">
+        <v>0.0008239655539647398</v>
+      </c>
+      <c r="F99">
+        <v>0.04145887421309963</v>
+      </c>
+      <c r="G99">
+        <v>-0.008923153535207038</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.116350475596142</v>
+        <v>0.1086022118637256</v>
       </c>
       <c r="C100">
-        <v>-0.412516760008329</v>
+        <v>0.3765057252639215</v>
       </c>
       <c r="D100">
-        <v>-0.3955871733936066</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.4207534433387762</v>
+      </c>
+      <c r="E100">
+        <v>-0.7486178932571983</v>
+      </c>
+      <c r="F100">
+        <v>-0.03927937737067546</v>
+      </c>
+      <c r="G100">
+        <v>-0.03307147435194215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02401204182071022</v>
+        <v>0.02697846309271182</v>
       </c>
       <c r="C101">
-        <v>-0.04625147571161944</v>
+        <v>0.04372395428716943</v>
       </c>
       <c r="D101">
-        <v>0.007394643621242557</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.003732985898156779</v>
+      </c>
+      <c r="E101">
+        <v>0.02753241440128431</v>
+      </c>
+      <c r="F101">
+        <v>0.0718091663955958</v>
+      </c>
+      <c r="G101">
+        <v>0.002661724172706121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
